--- a/core/assets/excel_test.xlsx
+++ b/core/assets/excel_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,59 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>represent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left-triangle</t>
+  </si>
+  <si>
+    <t>mh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matrix-3h</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +146,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono Medium"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,11 +176,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,19 +466,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
     <col min="3" max="3" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -433,7 +496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -483,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="30">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="30">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="30">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="30">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="30">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="30">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,6 +756,59 @@
       </c>
       <c r="P10" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="30">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.8">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/core/assets/excel_test.xlsx
+++ b/core/assets/excel_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,23 +62,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left-triangle</t>
+  </si>
+  <si>
+    <t>mh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matrix-3h</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>represent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>square</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
+    <t>qc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,36 +127,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>triangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left-triangle</t>
-  </si>
-  <si>
-    <t>mh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matrix-3h</t>
-  </si>
-  <si>
-    <t>alter</t>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body_type</t>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -598,7 +618,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -646,7 +666,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -760,55 +780,72 @@
     </row>
     <row r="11" spans="1:16" ht="30">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="30">
       <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>19</v>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.8">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="30">
       <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/core/assets/excel_test.xlsx
+++ b/core/assets/excel_test.xlsx
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -514,6 +514,9 @@
       </c>
       <c r="E1">
         <v>9</v>
+      </c>
+      <c r="F1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30">

--- a/core/assets/excel_test.xlsx
+++ b/core/assets/excel_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,26 @@
   </si>
   <si>
     <t>01c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -600,7 +620,9 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -617,7 +639,9 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -629,7 +653,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -665,7 +691,9 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -698,7 +726,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -720,10 +750,18 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>

--- a/core/assets/excel_test.xlsx
+++ b/core/assets/excel_test.xlsx
@@ -74,48 +74,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left-triangle</t>
+  </si>
+  <si>
+    <t>mh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matrix-3h</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>represent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>circle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>triangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left-triangle</t>
-  </si>
-  <si>
-    <t>mh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matrix-3h</t>
-  </si>
-  <si>
-    <t>alter</t>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>represent</t>
+    <t>eid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,39 +139,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>circle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-circle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -621,7 +621,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -654,7 +654,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -692,12 +692,12 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -727,7 +727,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -751,16 +751,16 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -821,7 +821,7 @@
     </row>
     <row r="11" spans="1:16" ht="30">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="30">
@@ -835,58 +835,58 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
         <v>24</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.8">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="30">
       <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="30">
       <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/core/assets/excel_test.xlsx
+++ b/core/assets/excel_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
   <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -506,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -519,7 +515,7 @@
     <col min="3" max="3" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -539,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30">
+    <row r="2" spans="1:18" ht="30">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -588,8 +584,10 @@
       <c r="P2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="30">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="30">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +597,12 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -610,8 +612,10 @@
       <c r="P3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="30">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="30">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,8 +627,12 @@
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -634,8 +642,10 @@
       <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="30">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="30">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,8 +659,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
@@ -662,30 +676,62 @@
       <c r="P5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="30">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="30">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="30">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="30">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,8 +745,12 @@
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -710,8 +760,10 @@
       <c r="P7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="30">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="30">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +775,12 @@
         <v>7</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
         <v>31</v>
@@ -736,8 +792,10 @@
       <c r="P8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="30">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="30">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,9 +807,11 @@
         <v>1</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
@@ -768,8 +828,10 @@
       <c r="P9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="30">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="30">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,13 +880,17 @@
       <c r="P10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="30">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="30">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="30">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="30">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -835,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -862,12 +928,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.8">
+    <row r="13" spans="1:18" ht="16.8">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30">
+    <row r="14" spans="1:18" ht="30">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,7 +944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="30">
+    <row r="15" spans="1:18" ht="30">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>

--- a/core/assets/excel_test.xlsx
+++ b/core/assets/excel_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,39 +119,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>circle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>L-circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>qc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L-circle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +509,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -625,7 +629,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>0</v>
@@ -650,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -668,7 +672,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -738,7 +742,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -783,7 +787,7 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -814,13 +818,11 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -901,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -925,7 +927,7 @@
         <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.8">
@@ -946,13 +948,13 @@
     </row>
     <row r="15" spans="1:18" ht="30">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
